--- a/xlsx/纽约公共图书馆_intext.xlsx
+++ b/xlsx/纽约公共图书馆_intext.xlsx
@@ -15,783 +15,786 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>纽约公共图书馆</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%85%AC%E5%85%B1%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%85%8B%E9%A0%93</t>
+  </si>
+  <si>
+    <t>曼克顿</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_纽约公共图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E6%81%A9%E7%89%B9%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>布莱恩特公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%85%AC%E5%85%B1%E5%9C%96%E6%9B%B8%E9%A4%A8%E7%B8%BD%E9%83%A8</t>
+  </si>
+  <si>
+    <t>纽约公共图书馆总部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Anthony_Marx</t>
+  </si>
+  <si>
+    <t>en-Anthony Marx</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E5%85%AC%E5%85%B1%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>布鲁克林公共图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%90%8E%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>皇后图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第五大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E5%9C%A3%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>古腾堡圣经</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%90%A8%E5%85%8B%C2%B7%E7%89%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>艾萨克·牛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%93%B2%E5%AD%A6%E7%9A%84%E6%95%B0%E5%AD%A6%E5%8E%9F%E7%90%86</t>
+  </si>
+  <si>
+    <t>自然哲学的数学原理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>卡内基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>大萧条时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>经济危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>电子计算机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%89%B9%E7%BD%91</t>
+  </si>
+  <si>
+    <t>因特网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>平方米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>林肯中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%BA%BA%E7%A7%8D</t>
+  </si>
+  <si>
+    <t>黑色人种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9C%98%E8%9B%9B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>蜘蛛人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC%E5%89%8B%E6%98%9F</t>
+  </si>
+  <si>
+    <t>魔鬼克星</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%A4%A9%E9%81%8E%E5%BE%8C</t>
+  </si>
+  <si>
+    <t>明天过后</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%87%A1%E5%85%A7%E6%97%A9%E9%A4%90</t>
+  </si>
+  <si>
+    <t>第凡内早餐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%80%83%E4%BA%A1</t>
+  </si>
+  <si>
+    <t>纽约大逃亡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Museums_in_Manhattan</t>
+  </si>
+  <si>
+    <t>Template talk-Museums in Manhattan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%89%BA%E6%9C%AF%E6%9A%A8%E6%96%87%E5%AD%A6%E5%AD%A6%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国艺术暨文学学会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Folk_Art_Museum</t>
+  </si>
+  <si>
+    <t>en-American Folk Art Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国自然史博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rose_Center_for_Earth_and_Space</t>
+  </si>
+  <si>
+    <t>en-Rose Center for Earth and Space</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>亚洲协会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Asian_American_Arts_Centre</t>
+  </si>
+  <si>
+    <t>en-Asian American Arts Centre</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%9F%8E%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>克林顿城堡</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Center_for_Jewish_History</t>
+  </si>
+  <si>
+    <t>en-Center for Jewish History</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chelsea_Art_Museum</t>
+  </si>
+  <si>
+    <t>en-Chelsea Art Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BE%8E%E5%8D%8F%E8%BF%9B%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>华美协进社</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Children%27s_Museum_of_Manhattan</t>
+  </si>
+  <si>
+    <t>en-Children's Museum of Manhattan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93%E9%99%A2%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>修道院艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dahesh_Museum_of_Art</t>
+  </si>
+  <si>
+    <t>en-Dahesh Museum of Art</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Drawing_Center</t>
+  </si>
+  <si>
+    <t>en-Drawing Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dyckman_House</t>
+  </si>
+  <si>
+    <t>en-Dyckman House</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/El_Museo_del_Barrio</t>
+  </si>
+  <si>
+    <t>en-El Museo del Barrio</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%BE%B7%E9%87%8C%E5%A5%87%E8%A1%97%E7%8A%B9%E5%A4%AA%E4%BC%9A%E5%A0%82</t>
+  </si>
+  <si>
+    <t>埃尔德里奇街犹太会堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>埃利斯岛</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fashion_Institute_of_Technology</t>
+  </si>
+  <si>
+    <t>en-Fashion Institute of Technology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%9B%BD%E5%AE%B6%E7%BA%AA%E5%BF%B5%E5%A0%82</t>
+  </si>
+  <si>
+    <t>联邦国家纪念堂</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Forbes_Galleries</t>
+  </si>
+  <si>
+    <t>en-Forbes Galleries</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E6%81%A9%E6%96%AF%E9%85%92%E9%A6%86</t>
+  </si>
+  <si>
+    <t>弗朗恩斯酒馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%85%8B%E6%94%B6%E8%97%8F</t>
+  </si>
+  <si>
+    <t>弗里克收藏</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/FusionArts_Museum</t>
+  </si>
+  <si>
+    <t>en-FusionArts Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/George_Gustav_Heye_Center</t>
+  </si>
+  <si>
+    <t>en-George Gustav Heye Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Girl_Scout_Museum_and_Archives</t>
+  </si>
+  <si>
+    <t>en-Girl Scout Museum and Archives</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E8%A5%BF%E5%A4%A7%E5%BB%88</t>
+  </si>
+  <si>
+    <t>格雷西大厦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gracie_Mansion</t>
+  </si>
+  <si>
+    <t>en-Gracie Mansion</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Grolier_Club</t>
+  </si>
+  <si>
+    <t>en-Grolier Club</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E5%8F%A4%E6%A0%B9%E6%BC%A2%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>所罗门·古根汉美术馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hamilton_Grange_National_Memorial</t>
+  </si>
+  <si>
+    <t>en-Hamilton Grange National Memorial</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hispanic_Society_of_America</t>
+  </si>
+  <si>
+    <t>en-Hispanic Society of America</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/International_Center_of_Photography</t>
+  </si>
+  <si>
+    <t>en-International Center of Photography</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/International_Print_Center_New_York</t>
+  </si>
+  <si>
+    <t>en-International Print Center New York</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%95%8F%E8%99%9F%E6%B5%B7%E3%80%81%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>无畏号海、空暨太空博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Irish_American_Baseball_Hall_of_Fame</t>
+  </si>
+  <si>
+    <t>en-Irish American Baseball Hall of Fame</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Japan_Society</t>
+  </si>
+  <si>
+    <t>en-Japan Society</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jewish_Museum_(Manhattan)</t>
+  </si>
+  <si>
+    <t>en-Jewish Museum (Manhattan)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_M._Mossman_Lock_Museum</t>
+  </si>
+  <si>
+    <t>en-John M. Mossman Lock Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lower_East_Side_Tenement_Museum</t>
+  </si>
+  <si>
+    <t>en-Lower East Side Tenement Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%9D%9C%E8%8E%8E%E5%A4%AB%E4%BA%BA%E8%9C%A1%E5%83%8F%E9%A6%86</t>
+  </si>
+  <si>
+    <t>纽约杜莎夫人蜡像馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malcolm_X_and_Dr._Betty_Shabazz_Memorial_and_Educational_Center</t>
+  </si>
+  <si>
+    <t>en-Malcolm X and Dr. Betty Shabazz Memorial and Educational Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Merchant%27s_House_Museum</t>
+  </si>
+  <si>
+    <t>en-Merchant's House Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>大都会艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%8F%8A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>摩根图书馆及博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Morris%E2%80%93Jumel_Mansion</t>
+  </si>
+  <si>
+    <t>en-Morris–Jumel Mansion</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Hotel_Museum</t>
+  </si>
+  <si>
+    <t>en-Mount Vernon Hotel Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%91%E8%9E%8D%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国金融博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Arts_and_Design</t>
+  </si>
+  <si>
+    <t>en-Museum of Arts and Design</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Biblical_Art</t>
+  </si>
+  <si>
+    <t>en-Museum of Biblical Art</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%8F%AF%E4%BA%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国华人博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%BC%AB%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>动漫艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Jewish_Heritage</t>
+  </si>
+  <si>
+    <t>en-Museum of Jewish Heritage</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Mathematics</t>
+  </si>
+  <si>
+    <t>en-Museum of Mathematics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>现代艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Motherhood</t>
+  </si>
+  <si>
+    <t>en-Museum of Motherhood</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Primitive_Art</t>
+  </si>
+  <si>
+    <t>en-Museum of Primitive Art</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8D%9A%E7%89%A9%E9%A4%A8_(%E7%B4%90%E7%B4%84)</t>
+  </si>
+  <si>
+    <t>性博物馆 (纽约)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_Sex</t>
+  </si>
+  <si>
+    <t>en-Museum of Sex</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9F%8E%E5%B8%82%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>纽约城市博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Museum_of_the_City_of_New_York</t>
+  </si>
+  <si>
+    <t>en-Museum of the City of New York</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AD%B8%E9%99%A2%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%92%8C%E5%AD%B8%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>国家学院博物馆和学校</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Jazz_Museum_in_Harlem</t>
+  </si>
+  <si>
+    <t>en-National Jazz Museum in Harlem</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Track_and_Field_Hall_of_Fame</t>
+  </si>
+  <si>
+    <t>en-National Track and Field Hall of Fame</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neue_Galerie_New_York</t>
+  </si>
+  <si>
+    <t>en-Neue Galerie New York</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B6%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>新当代艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_City_Fire_Museum</t>
+  </si>
+  <si>
+    <t>en-New York City Fire Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82%E8%AD%A6%E5%AF%9F%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>纽约市警察博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Public_Library_for_the_Performing_Arts</t>
+  </si>
+  <si>
+    <t>en-New York Public Library for the Performing Arts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%BA%A4%E9%80%9A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>纽约交通博物馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Transit_Museum</t>
+  </si>
+  <si>
+    <t>en-New York Transit Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New-York_Historical_Society</t>
+  </si>
+  <si>
+    <t>en-New-York Historical Society</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Paley_Center_for_Media</t>
+  </si>
+  <si>
+    <t>en-Paley Center for Media</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rose_Museum</t>
+  </si>
+  <si>
+    <t>en-Rose Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nicholas_Roerich_Museum</t>
+  </si>
+  <si>
+    <t>en-Nicholas Roerich Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rubin_Museum_of_Art</t>
+  </si>
+  <si>
+    <t>en-Rubin Museum of Art</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scandinavia_House%E2%80%93The_Nordic_Center_in_America</t>
+  </si>
+  <si>
+    <t>en-Scandinavia House–The Nordic Center in America</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Skyscraper_Museum</t>
+  </si>
+  <si>
+    <t>en-Skyscraper Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%A1%97%E6%B5%B7%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>南街海港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
+  </si>
+  <si>
+    <t>自由女神像</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Studio_Museum_in_Harlem</t>
+  </si>
+  <si>
+    <t>en-Studio Museum in Harlem</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Theatre_Museum</t>
+  </si>
+  <si>
+    <t>en-The Theatre Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Theodore_Roosevelt_Birthplace_National_Historic_Site</t>
+  </si>
+  <si>
+    <t>en-Theodore Roosevelt Birthplace National Historic Site</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tibet_House</t>
+  </si>
+  <si>
+    <t>en-Tibet House</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ukrainian_Museum</t>
+  </si>
+  <si>
+    <t>en-Ukrainian Museum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Nations_Art_Collection</t>
+  </si>
+  <si>
+    <t>en-United Nations Art Collection</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E5%B0%BC%E7%BE%8E%E5%9B%BD%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>惠特尼美国艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>叶史瓦大学博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%85%AC%E5%85%B1%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%85%8B%E9%A0%93</t>
-  </si>
-  <si>
-    <t>曼克頓</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_纽约公共图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E6%81%A9%E7%89%B9%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>布莱恩特公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%85%AC%E5%85%B1%E5%9C%96%E6%9B%B8%E9%A4%A8%E7%B8%BD%E9%83%A8</t>
-  </si>
-  <si>
-    <t>紐約公共圖書館總部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Anthony_Marx</t>
-  </si>
-  <si>
-    <t>en-Anthony Marx</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E5%85%AC%E5%85%B1%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>布鲁克林公共图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%90%8E%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>皇后圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
-  </si>
-  <si>
-    <t>纽约市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第五大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E5%9C%A3%E7%BB%8F</t>
-  </si>
-  <si>
-    <t>古腾堡圣经</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%90%A8%E5%85%8B%C2%B7%E7%89%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>艾萨克·牛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%93%B2%E5%AD%A6%E7%9A%84%E6%95%B0%E5%AD%A6%E5%8E%9F%E7%90%86</t>
-  </si>
-  <si>
-    <t>自然哲学的数学原理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>卡內基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>大萧条时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>经济危机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>电子计算机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%89%B9%E7%BD%91</t>
-  </si>
-  <si>
-    <t>因特网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>平方米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>林肯中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%BA%BA%E7%A7%8D</t>
-  </si>
-  <si>
-    <t>黑色人种</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9C%98%E8%9B%9B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>蜘蛛人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC%E5%89%8B%E6%98%9F</t>
-  </si>
-  <si>
-    <t>魔鬼剋星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%A4%A9%E9%81%8E%E5%BE%8C</t>
-  </si>
-  <si>
-    <t>明天過後</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%87%A1%E5%85%A7%E6%97%A9%E9%A4%90</t>
-  </si>
-  <si>
-    <t>第凡內早餐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%80%83%E4%BA%A1</t>
-  </si>
-  <si>
-    <t>紐約大逃亡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Museums_in_Manhattan</t>
-  </si>
-  <si>
-    <t>Template talk-Museums in Manhattan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
-  </si>
-  <si>
-    <t>曼哈頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%89%BA%E6%9C%AF%E6%9A%A8%E6%96%87%E5%AD%A6%E5%AD%A6%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国艺术暨文学学会</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Folk_Art_Museum</t>
-  </si>
-  <si>
-    <t>en-American Folk Art Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國自然史博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rose_Center_for_Earth_and_Space</t>
-  </si>
-  <si>
-    <t>en-Rose Center for Earth and Space</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>亞洲協會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Asian_American_Arts_Centre</t>
-  </si>
-  <si>
-    <t>en-Asian American Arts Centre</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%9F%8E%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>克林顿城堡</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Center_for_Jewish_History</t>
-  </si>
-  <si>
-    <t>en-Center for Jewish History</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chelsea_Art_Museum</t>
-  </si>
-  <si>
-    <t>en-Chelsea Art Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BE%8E%E5%8D%8F%E8%BF%9B%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>华美协进社</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Children%27s_Museum_of_Manhattan</t>
-  </si>
-  <si>
-    <t>en-Children's Museum of Manhattan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93%E9%99%A2%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>修道院艺术博物馆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dahesh_Museum_of_Art</t>
-  </si>
-  <si>
-    <t>en-Dahesh Museum of Art</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Drawing_Center</t>
-  </si>
-  <si>
-    <t>en-Drawing Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dyckman_House</t>
-  </si>
-  <si>
-    <t>en-Dyckman House</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/El_Museo_del_Barrio</t>
-  </si>
-  <si>
-    <t>en-El Museo del Barrio</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%BE%B7%E9%87%8C%E5%A5%87%E8%A1%97%E7%8A%B9%E5%A4%AA%E4%BC%9A%E5%A0%82</t>
-  </si>
-  <si>
-    <t>埃尔德里奇街犹太会堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>埃利斯島</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fashion_Institute_of_Technology</t>
-  </si>
-  <si>
-    <t>en-Fashion Institute of Technology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%9B%BD%E5%AE%B6%E7%BA%AA%E5%BF%B5%E5%A0%82</t>
-  </si>
-  <si>
-    <t>联邦国家纪念堂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Forbes_Galleries</t>
-  </si>
-  <si>
-    <t>en-Forbes Galleries</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E6%81%A9%E6%96%AF%E9%85%92%E9%A6%86</t>
-  </si>
-  <si>
-    <t>弗朗恩斯酒馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%85%8B%E6%94%B6%E8%97%8F</t>
-  </si>
-  <si>
-    <t>弗里克收藏</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/FusionArts_Museum</t>
-  </si>
-  <si>
-    <t>en-FusionArts Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_Gustav_Heye_Center</t>
-  </si>
-  <si>
-    <t>en-George Gustav Heye Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Girl_Scout_Museum_and_Archives</t>
-  </si>
-  <si>
-    <t>en-Girl Scout Museum and Archives</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E8%A5%BF%E5%A4%A7%E5%BB%88</t>
-  </si>
-  <si>
-    <t>格雷西大廈</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gracie_Mansion</t>
-  </si>
-  <si>
-    <t>en-Gracie Mansion</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Grolier_Club</t>
-  </si>
-  <si>
-    <t>en-Grolier Club</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E5%8F%A4%E6%A0%B9%E6%BC%A2%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>所羅門·古根漢美術館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hamilton_Grange_National_Memorial</t>
-  </si>
-  <si>
-    <t>en-Hamilton Grange National Memorial</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hispanic_Society_of_America</t>
-  </si>
-  <si>
-    <t>en-Hispanic Society of America</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/International_Center_of_Photography</t>
-  </si>
-  <si>
-    <t>en-International Center of Photography</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/International_Print_Center_New_York</t>
-  </si>
-  <si>
-    <t>en-International Print Center New York</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%95%8F%E8%99%9F%E6%B5%B7%E3%80%81%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>無畏號海、空暨太空博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Irish_American_Baseball_Hall_of_Fame</t>
-  </si>
-  <si>
-    <t>en-Irish American Baseball Hall of Fame</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Japan_Society</t>
-  </si>
-  <si>
-    <t>en-Japan Society</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jewish_Museum_(Manhattan)</t>
-  </si>
-  <si>
-    <t>en-Jewish Museum (Manhattan)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_M._Mossman_Lock_Museum</t>
-  </si>
-  <si>
-    <t>en-John M. Mossman Lock Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lower_East_Side_Tenement_Museum</t>
-  </si>
-  <si>
-    <t>en-Lower East Side Tenement Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%9D%9C%E8%8E%8E%E5%A4%AB%E4%BA%BA%E8%9C%A1%E5%83%8F%E9%A6%86</t>
-  </si>
-  <si>
-    <t>纽约杜莎夫人蜡像馆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Malcolm_X_and_Dr._Betty_Shabazz_Memorial_and_Educational_Center</t>
-  </si>
-  <si>
-    <t>en-Malcolm X and Dr. Betty Shabazz Memorial and Educational Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Merchant%27s_House_Museum</t>
-  </si>
-  <si>
-    <t>en-Merchant's House Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>大都會藝術博物館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%8F%8A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>摩根圖書館及博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Morris%E2%80%93Jumel_Mansion</t>
-  </si>
-  <si>
-    <t>en-Morris–Jumel Mansion</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Hotel_Museum</t>
-  </si>
-  <si>
-    <t>en-Mount Vernon Hotel Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%91%E8%9E%8D%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國金融博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Arts_and_Design</t>
-  </si>
-  <si>
-    <t>en-Museum of Arts and Design</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Biblical_Art</t>
-  </si>
-  <si>
-    <t>en-Museum of Biblical Art</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%8F%AF%E4%BA%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國華人博物館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%BC%AB%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>动漫艺术博物馆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Jewish_Heritage</t>
-  </si>
-  <si>
-    <t>en-Museum of Jewish Heritage</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Mathematics</t>
-  </si>
-  <si>
-    <t>en-Museum of Mathematics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>現代藝術博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Motherhood</t>
-  </si>
-  <si>
-    <t>en-Museum of Motherhood</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Primitive_Art</t>
-  </si>
-  <si>
-    <t>en-Museum of Primitive Art</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8D%9A%E7%89%A9%E9%A4%A8_(%E7%B4%90%E7%B4%84)</t>
-  </si>
-  <si>
-    <t>性博物館 (紐約)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_Sex</t>
-  </si>
-  <si>
-    <t>en-Museum of Sex</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9F%8E%E5%B8%82%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>紐約城市博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Museum_of_the_City_of_New_York</t>
-  </si>
-  <si>
-    <t>en-Museum of the City of New York</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AD%B8%E9%99%A2%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%92%8C%E5%AD%B8%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>國家學院博物館和學校</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Jazz_Museum_in_Harlem</t>
-  </si>
-  <si>
-    <t>en-National Jazz Museum in Harlem</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Track_and_Field_Hall_of_Fame</t>
-  </si>
-  <si>
-    <t>en-National Track and Field Hall of Fame</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neue_Galerie_New_York</t>
-  </si>
-  <si>
-    <t>en-Neue Galerie New York</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B6%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>新當代藝術博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_City_Fire_Museum</t>
-  </si>
-  <si>
-    <t>en-New York City Fire Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82%E8%AD%A6%E5%AF%9F%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>纽约市警察博物馆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Public_Library_for_the_Performing_Arts</t>
-  </si>
-  <si>
-    <t>en-New York Public Library for the Performing Arts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%BA%A4%E9%80%9A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>紐約交通博物館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Transit_Museum</t>
-  </si>
-  <si>
-    <t>en-New York Transit Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New-York_Historical_Society</t>
-  </si>
-  <si>
-    <t>en-New-York Historical Society</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Paley_Center_for_Media</t>
-  </si>
-  <si>
-    <t>en-Paley Center for Media</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rose_Museum</t>
-  </si>
-  <si>
-    <t>en-Rose Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nicholas_Roerich_Museum</t>
-  </si>
-  <si>
-    <t>en-Nicholas Roerich Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rubin_Museum_of_Art</t>
-  </si>
-  <si>
-    <t>en-Rubin Museum of Art</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scandinavia_House%E2%80%93The_Nordic_Center_in_America</t>
-  </si>
-  <si>
-    <t>en-Scandinavia House–The Nordic Center in America</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Skyscraper_Museum</t>
-  </si>
-  <si>
-    <t>en-Skyscraper Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%A1%97%E6%B5%B7%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>南街海港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
-  </si>
-  <si>
-    <t>自由女神像</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Studio_Museum_in_Harlem</t>
-  </si>
-  <si>
-    <t>en-Studio Museum in Harlem</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Theatre_Museum</t>
-  </si>
-  <si>
-    <t>en-The Theatre Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Theodore_Roosevelt_Birthplace_National_Historic_Site</t>
-  </si>
-  <si>
-    <t>en-Theodore Roosevelt Birthplace National Historic Site</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tibet_House</t>
-  </si>
-  <si>
-    <t>en-Tibet House</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ukrainian_Museum</t>
-  </si>
-  <si>
-    <t>en-Ukrainian Museum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Nations_Art_Collection</t>
-  </si>
-  <si>
-    <t>en-United Nations Art Collection</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E5%B0%BC%E7%BE%8E%E5%9B%BD%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>惠特尼美国艺术博物馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>叶史瓦大学博物馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1452,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -1478,10 +1481,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1507,10 +1510,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1536,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1565,10 +1568,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1594,10 +1597,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1623,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1652,10 +1655,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>7</v>
@@ -1681,10 +1684,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1710,10 +1713,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1739,10 +1742,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1768,10 +1771,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1797,10 +1800,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1826,10 +1829,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1855,10 +1858,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1884,10 +1887,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1913,10 +1916,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1942,10 +1945,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1971,10 +1974,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2000,10 +2003,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2029,10 +2032,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2058,10 +2061,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2087,10 +2090,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2116,10 +2119,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2145,10 +2148,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2174,10 +2177,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2203,10 +2206,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2232,10 +2235,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2261,10 +2264,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2290,10 +2293,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2319,10 +2322,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2348,10 +2351,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2377,10 +2380,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2406,10 +2409,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2435,10 +2438,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2464,10 +2467,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2493,10 +2496,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2522,10 +2525,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2551,10 +2554,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2580,10 +2583,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2609,10 +2612,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2638,10 +2641,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2667,10 +2670,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2696,10 +2699,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2725,10 +2728,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2754,10 +2757,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2783,10 +2786,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2812,10 +2815,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2841,10 +2844,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2870,10 +2873,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2899,10 +2902,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2928,10 +2931,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2957,10 +2960,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2986,10 +2989,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3015,10 +3018,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3044,10 +3047,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3073,10 +3076,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3102,10 +3105,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3131,10 +3134,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3160,10 +3163,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3189,10 +3192,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3218,10 +3221,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3247,10 +3250,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3276,10 +3279,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3305,10 +3308,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3334,10 +3337,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3363,10 +3366,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3392,10 +3395,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3421,10 +3424,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3450,10 +3453,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3479,10 +3482,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3508,10 +3511,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3537,10 +3540,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3566,10 +3569,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3595,10 +3598,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3624,10 +3627,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3653,10 +3656,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3682,10 +3685,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3711,10 +3714,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3740,10 +3743,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3769,10 +3772,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3798,10 +3801,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3827,10 +3830,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3856,10 +3859,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3885,10 +3888,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3914,10 +3917,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3943,10 +3946,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3972,10 +3975,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4001,10 +4004,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4030,10 +4033,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4059,10 +4062,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4088,10 +4091,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4117,10 +4120,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4146,10 +4149,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4175,10 +4178,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4204,10 +4207,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4233,10 +4236,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4262,10 +4265,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4291,10 +4294,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4320,10 +4323,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4349,10 +4352,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4378,10 +4381,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4407,10 +4410,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4436,10 +4439,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4465,10 +4468,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4494,10 +4497,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4523,10 +4526,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4552,10 +4555,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4581,10 +4584,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4610,10 +4613,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4639,10 +4642,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4668,10 +4671,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4697,10 +4700,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4726,10 +4729,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4755,10 +4758,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4784,10 +4787,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4813,10 +4816,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4842,10 +4845,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4871,18 +4874,76 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" t="s">
+        <v>256</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>129</v>
+      </c>
+      <c r="E130" t="s">
         <v>257</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>258</v>
       </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" t="n">
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>130</v>
+      </c>
+      <c r="E131" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" t="n">
         <v>3</v>
       </c>
     </row>
